--- a/sources/Estonian_data.xlsx
+++ b/sources/Estonian_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="554">
   <si>
     <t>language_no</t>
   </si>
@@ -1659,29 +1659,38 @@
     <t>TRANSL</t>
   </si>
   <si>
-    <t>ADESNOM</t>
-  </si>
-  <si>
-    <t>ALLNOM</t>
-  </si>
-  <si>
-    <t>NOMCOM</t>
-  </si>
-  <si>
-    <t>NOMIL</t>
-  </si>
-  <si>
-    <t>NOMEL</t>
-  </si>
-  <si>
-    <t>NOMALL</t>
+    <t>*</t>
+  </si>
+  <si>
+    <t>GEN~PART</t>
+  </si>
+  <si>
+    <t>ADESS_NOM</t>
+  </si>
+  <si>
+    <t>ALL_NOM</t>
+  </si>
+  <si>
+    <t>NOM_COM</t>
+  </si>
+  <si>
+    <t>NOM_IL</t>
+  </si>
+  <si>
+    <t>NOM_EL</t>
+  </si>
+  <si>
+    <t>NOM_ALL</t>
+  </si>
+  <si>
+    <t>NOM_PART</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1708,17 +1717,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="10"/>
-      <name val="Arial Cyr"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1762,7 +1760,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" textRotation="90" wrapText="1"/>
@@ -1785,21 +1783,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2080,10 +2063,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:S131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="J126" sqref="J126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2169,7 +2153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>4</v>
       </c>
@@ -2192,17 +2176,17 @@
         <v>22</v>
       </c>
       <c r="H2" s="7"/>
-      <c r="I2" s="10" t="s">
+      <c r="I2" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="J2" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>545</v>
+      <c r="L2" s="5" t="s">
+        <v>547</v>
       </c>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -2212,7 +2196,7 @@
       <c r="R2" s="7"/>
       <c r="S2" s="5"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>4</v>
       </c>
@@ -2235,10 +2219,16 @@
         <v>26</v>
       </c>
       <c r="H3" s="7"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="10"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="11"/>
+      <c r="I3" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
@@ -2270,17 +2260,17 @@
         <v>30</v>
       </c>
       <c r="H4" s="7"/>
-      <c r="I4" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="K4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="11" t="s">
-        <v>538</v>
+      <c r="L4" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
@@ -2290,7 +2280,7 @@
       <c r="R4" s="7"/>
       <c r="S4" s="5"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2313,10 +2303,16 @@
         <v>34</v>
       </c>
       <c r="H5" s="7"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
+      <c r="I5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
@@ -2325,7 +2321,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="5"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2348,17 +2344,17 @@
         <v>38</v>
       </c>
       <c r="H6" s="7"/>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="J6" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="K6" s="10" t="s">
+      <c r="J6" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="K6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>546</v>
+      <c r="L6" s="5" t="s">
+        <v>548</v>
       </c>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -2391,17 +2387,17 @@
         <v>42</v>
       </c>
       <c r="H7" s="7"/>
-      <c r="I7" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="I7" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L7" s="11" t="s">
-        <v>547</v>
+      <c r="L7" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -2411,7 +2407,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -2434,10 +2430,16 @@
         <v>46</v>
       </c>
       <c r="H8" s="7"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
+      <c r="I8" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -2446,7 +2448,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="5"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>4</v>
       </c>
@@ -2469,14 +2471,16 @@
         <v>50</v>
       </c>
       <c r="H9" s="7"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K9" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L9" s="11" t="s">
+      <c r="L9" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M9" s="5"/>
@@ -2510,17 +2514,17 @@
         <v>54</v>
       </c>
       <c r="H10" s="7"/>
-      <c r="I10" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="I10" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K10" s="10" t="s">
+      <c r="K10" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L10" s="12" t="s">
-        <v>538</v>
+      <c r="L10" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -2553,17 +2557,17 @@
         <v>58</v>
       </c>
       <c r="H11" s="7"/>
-      <c r="I11" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="I11" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K11" s="10" t="s">
+      <c r="K11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L11" s="11" t="s">
-        <v>538</v>
+      <c r="L11" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -2596,17 +2600,17 @@
         <v>62</v>
       </c>
       <c r="H12" s="7"/>
-      <c r="I12" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="I12" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="11" t="s">
-        <v>547</v>
+      <c r="L12" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -2639,17 +2643,17 @@
         <v>66</v>
       </c>
       <c r="H13" s="7"/>
-      <c r="I13" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="I13" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="K13" s="10" t="s">
+      <c r="K13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>548</v>
+      <c r="L13" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -2659,7 +2663,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="5"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>4</v>
       </c>
@@ -2682,14 +2686,16 @@
         <v>70</v>
       </c>
       <c r="H14" s="7"/>
-      <c r="I14" s="10" t="s">
+      <c r="I14" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L14" s="11" t="s">
+      <c r="L14" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M14" s="5"/>
@@ -2723,17 +2729,17 @@
         <v>74</v>
       </c>
       <c r="H15" s="7"/>
-      <c r="I15" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="I15" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K15" s="10" t="s">
+      <c r="K15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>549</v>
+      <c r="L15" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
@@ -2743,7 +2749,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="8"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>4</v>
       </c>
@@ -2766,14 +2772,16 @@
         <v>78</v>
       </c>
       <c r="H16" s="7"/>
-      <c r="I16" s="10" t="s">
+      <c r="I16" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K16" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L16" s="11" t="s">
+      <c r="L16" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M16" s="5"/>
@@ -2784,7 +2792,7 @@
       <c r="R16" s="7"/>
       <c r="S16" s="7"/>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>4</v>
       </c>
@@ -2807,14 +2815,16 @@
         <v>82</v>
       </c>
       <c r="H17" s="7"/>
-      <c r="I17" s="10" t="s">
+      <c r="I17" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L17" s="11" t="s">
+      <c r="L17" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M17" s="5"/>
@@ -2848,17 +2858,17 @@
         <v>86</v>
       </c>
       <c r="H18" s="7"/>
-      <c r="I18" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="I18" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K18" s="10" t="s">
+      <c r="K18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="11" t="s">
-        <v>550</v>
+      <c r="L18" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
@@ -2891,17 +2901,17 @@
         <v>90</v>
       </c>
       <c r="H19" s="7"/>
-      <c r="I19" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="I19" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L19" s="11" t="s">
-        <v>538</v>
+      <c r="L19" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
@@ -2934,17 +2944,17 @@
         <v>94</v>
       </c>
       <c r="H20" s="7"/>
-      <c r="I20" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="I20" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="11" t="s">
-        <v>550</v>
+      <c r="L20" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M20" s="5"/>
       <c r="N20" s="5"/>
@@ -2977,17 +2987,17 @@
         <v>98</v>
       </c>
       <c r="H21" s="7"/>
-      <c r="I21" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="I21" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L21" s="11" t="s">
-        <v>538</v>
+      <c r="L21" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M21" s="5"/>
       <c r="N21" s="5"/>
@@ -3020,17 +3030,17 @@
         <v>102</v>
       </c>
       <c r="H22" s="7"/>
-      <c r="I22" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="I22" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="11" t="s">
-        <v>550</v>
+      <c r="L22" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
@@ -3063,17 +3073,17 @@
         <v>106</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="I23" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K23" s="10" t="s">
+      <c r="K23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L23" s="11" t="s">
-        <v>538</v>
+      <c r="L23" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -3106,17 +3116,17 @@
         <v>110</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J24" s="10" t="s">
+      <c r="I24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K24" s="10" t="s">
+      <c r="K24" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L24" s="11" t="s">
-        <v>547</v>
+      <c r="L24" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -3149,17 +3159,17 @@
         <v>114</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="I25" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J25" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K25" s="10" t="s">
+      <c r="K25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L25" s="11" t="s">
-        <v>547</v>
+      <c r="L25" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -3192,17 +3202,17 @@
         <v>118</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="I26" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J26" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K26" s="10" t="s">
+      <c r="K26" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L26" s="11" t="s">
-        <v>549</v>
+      <c r="L26" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M26" s="5"/>
       <c r="N26" s="5"/>
@@ -3212,7 +3222,7 @@
       <c r="R26" s="7"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -3235,14 +3245,16 @@
         <v>122</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="10" t="s">
+      <c r="I27" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L27" s="11" t="s">
+      <c r="L27" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M27" s="5"/>
@@ -3253,7 +3265,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="5"/>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -3276,14 +3288,16 @@
         <v>126</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M28" s="5"/>
@@ -3317,17 +3331,17 @@
         <v>130</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="I29" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J29" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K29" s="10" t="s">
+      <c r="K29" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L29" s="12" t="s">
-        <v>538</v>
+      <c r="L29" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M29" s="5"/>
       <c r="N29" s="5"/>
@@ -3337,7 +3351,7 @@
       <c r="R29" s="7"/>
       <c r="S29" s="5"/>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>4</v>
       </c>
@@ -3360,14 +3374,16 @@
         <v>134</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="10" t="s">
+      <c r="I30" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K30" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L30" s="11" t="s">
+      <c r="L30" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M30" s="5"/>
@@ -3401,17 +3417,17 @@
         <v>138</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="I31" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K31" s="10" t="s">
+      <c r="K31" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L31" s="11" t="s">
-        <v>549</v>
+      <c r="L31" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M31" s="5"/>
       <c r="N31" s="5"/>
@@ -3421,7 +3437,7 @@
       <c r="R31" s="7"/>
       <c r="S31" s="5"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>4</v>
       </c>
@@ -3444,14 +3460,16 @@
         <v>142</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="10" t="s">
+      <c r="I32" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K32" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L32" s="11" t="s">
+      <c r="L32" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M32" s="5"/>
@@ -3485,17 +3503,17 @@
         <v>146</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="I33" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J33" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K33" s="10" t="s">
+      <c r="K33" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L33" s="11" t="s">
-        <v>547</v>
+      <c r="L33" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M33" s="5"/>
       <c r="N33" s="5"/>
@@ -3528,17 +3546,17 @@
         <v>150</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="I34" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J34" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K34" s="10" t="s">
+      <c r="K34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L34" s="11" t="s">
-        <v>538</v>
+      <c r="L34" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M34" s="5"/>
       <c r="N34" s="5"/>
@@ -3571,17 +3589,17 @@
         <v>154</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="J35" s="13" t="s">
+      <c r="I35" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J35" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K35" s="10" t="s">
+      <c r="K35" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L35" s="11" t="s">
-        <v>538</v>
+      <c r="L35" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M35" s="5"/>
       <c r="N35" s="5"/>
@@ -3614,17 +3632,17 @@
         <v>158</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="I36" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J36" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K36" s="10" t="s">
+      <c r="K36" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L36" s="11" t="s">
-        <v>538</v>
+      <c r="L36" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M36" s="5"/>
       <c r="N36" s="5"/>
@@ -3634,7 +3652,7 @@
       <c r="R36" s="7"/>
       <c r="S36" s="5"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>4</v>
       </c>
@@ -3657,14 +3675,16 @@
         <v>162</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="10" t="s">
+      <c r="I37" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K37" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L37" s="11" t="s">
+      <c r="L37" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M37" s="5"/>
@@ -3698,17 +3718,17 @@
         <v>166</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J38" s="10" t="s">
+      <c r="I38" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J38" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K38" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L38" s="11" t="s">
-        <v>538</v>
+      <c r="L38" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M38" s="5"/>
       <c r="N38" s="5"/>
@@ -3718,7 +3738,7 @@
       <c r="R38" s="7"/>
       <c r="S38" s="5"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -3741,10 +3761,16 @@
         <v>169</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
+      <c r="I39" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L39" s="5"/>
       <c r="M39" s="5"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
@@ -3776,17 +3802,17 @@
         <v>173</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J40" s="10" t="s">
+      <c r="I40" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J40" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K40" s="10" t="s">
+      <c r="K40" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L40" s="11" t="s">
-        <v>538</v>
+      <c r="L40" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M40" s="5"/>
       <c r="N40" s="5"/>
@@ -3796,7 +3822,7 @@
       <c r="R40" s="7"/>
       <c r="S40" s="5"/>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -3819,14 +3845,16 @@
         <v>177</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="10" t="s">
+      <c r="I41" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K41" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L41" s="11" t="s">
+      <c r="L41" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M41" s="5"/>
@@ -3837,7 +3865,7 @@
       <c r="R41" s="7"/>
       <c r="S41" s="5"/>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -3860,14 +3888,16 @@
         <v>181</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="10" t="s">
+      <c r="I42" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K42" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L42" s="11" t="s">
+      <c r="L42" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M42" s="5"/>
@@ -3901,17 +3931,17 @@
         <v>185</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J43" s="10" t="s">
+      <c r="I43" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J43" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K43" s="10" t="s">
+      <c r="K43" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L43" s="11" t="s">
-        <v>549</v>
+      <c r="L43" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M43" s="5"/>
       <c r="N43" s="5"/>
@@ -3921,7 +3951,7 @@
       <c r="R43" s="7"/>
       <c r="S43" s="5"/>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -3944,14 +3974,16 @@
         <v>189</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="10" t="s">
+      <c r="I44" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K44" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L44" s="11" t="s">
+      <c r="L44" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M44" s="5"/>
@@ -3962,7 +3994,7 @@
       <c r="R44" s="7"/>
       <c r="S44" s="5"/>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -3985,14 +4017,16 @@
         <v>193</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="10" t="s">
+      <c r="I45" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K45" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L45" s="11" t="s">
+      <c r="L45" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M45" s="5"/>
@@ -4003,7 +4037,7 @@
       <c r="R45" s="7"/>
       <c r="S45" s="5"/>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -4026,10 +4060,16 @@
         <v>197</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
+      <c r="I46" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
@@ -4061,17 +4101,17 @@
         <v>201</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J47" s="10" t="s">
+      <c r="I47" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J47" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K47" s="10" t="s">
+      <c r="K47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L47" s="11" t="s">
-        <v>538</v>
+      <c r="L47" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
@@ -4104,17 +4144,17 @@
         <v>205</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J48" s="10" t="s">
+      <c r="I48" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J48" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K48" s="10" t="s">
+      <c r="K48" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L48" s="11" t="s">
-        <v>547</v>
+      <c r="L48" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M48" s="5"/>
       <c r="N48" s="5"/>
@@ -4147,17 +4187,17 @@
         <v>209</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="J49" s="13" t="s">
+      <c r="I49" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J49" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K49" s="10" t="s">
+      <c r="K49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>549</v>
+      <c r="L49" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M49" s="5"/>
       <c r="N49" s="5"/>
@@ -4167,7 +4207,7 @@
       <c r="R49" s="7"/>
       <c r="S49" s="5"/>
     </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>4</v>
       </c>
@@ -4190,14 +4230,16 @@
         <v>213</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="10" t="s">
+      <c r="I50" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K50" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L50" s="11" t="s">
+      <c r="L50" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M50" s="5"/>
@@ -4208,7 +4250,7 @@
       <c r="R50" s="7"/>
       <c r="S50" s="5"/>
     </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>4</v>
       </c>
@@ -4231,14 +4273,16 @@
         <v>217</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="10" t="s">
+      <c r="I51" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K51" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L51" s="11" t="s">
+      <c r="L51" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M51" s="5"/>
@@ -4272,16 +4316,16 @@
         <v>221</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J52" s="10" t="s">
+      <c r="I52" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J52" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="K52" s="10" t="s">
+      <c r="K52" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L52" s="11" t="s">
+      <c r="L52" s="5" t="s">
         <v>544</v>
       </c>
       <c r="M52" s="5"/>
@@ -4315,17 +4359,17 @@
         <v>225</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J53" s="10" t="s">
+      <c r="I53" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J53" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L53" s="11" t="s">
-        <v>538</v>
+      <c r="L53" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M53" s="5"/>
       <c r="N53" s="5"/>
@@ -4358,17 +4402,17 @@
         <v>229</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J54" s="10" t="s">
+      <c r="I54" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J54" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K54" s="10" t="s">
+      <c r="K54" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L54" s="11" t="s">
-        <v>538</v>
+      <c r="L54" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M54" s="5"/>
       <c r="N54" s="5"/>
@@ -4401,17 +4445,17 @@
         <v>233</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J55" s="10" t="s">
+      <c r="I55" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J55" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K55" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L55" s="11" t="s">
-        <v>547</v>
+      <c r="L55" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M55" s="5"/>
       <c r="N55" s="5"/>
@@ -4421,7 +4465,7 @@
       <c r="R55" s="7"/>
       <c r="S55" s="5"/>
     </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>4</v>
       </c>
@@ -4444,14 +4488,16 @@
         <v>237</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="10" t="s">
+      <c r="I56" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K56" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L56" s="11" t="s">
+      <c r="L56" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M56" s="5"/>
@@ -4462,7 +4508,7 @@
       <c r="R56" s="7"/>
       <c r="S56" s="5"/>
     </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>4</v>
       </c>
@@ -4485,10 +4531,16 @@
         <v>241</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="11"/>
+      <c r="I57" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L57" s="5"/>
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
       <c r="O57" s="5"/>
@@ -4497,7 +4549,7 @@
       <c r="R57" s="7"/>
       <c r="S57" s="5"/>
     </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>4</v>
       </c>
@@ -4520,10 +4572,16 @@
         <v>245</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11"/>
+      <c r="I58" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L58" s="5"/>
       <c r="M58" s="5"/>
       <c r="N58" s="5"/>
       <c r="O58" s="5"/>
@@ -4532,7 +4590,7 @@
       <c r="R58" s="7"/>
       <c r="S58" s="5"/>
     </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>4</v>
       </c>
@@ -4555,10 +4613,16 @@
         <v>249</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="11"/>
+      <c r="I59" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L59" s="5"/>
       <c r="M59" s="5"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
@@ -4590,17 +4654,17 @@
         <v>253</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J60" s="10" t="s">
+      <c r="I60" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K60" s="10" t="s">
+      <c r="K60" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="11" t="s">
-        <v>549</v>
+      <c r="L60" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M60" s="5"/>
       <c r="N60" s="5"/>
@@ -4633,17 +4697,17 @@
         <v>257</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J61" s="10" t="s">
+      <c r="I61" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J61" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K61" s="10" t="s">
+      <c r="K61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L61" s="11" t="s">
-        <v>538</v>
+      <c r="L61" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M61" s="5"/>
       <c r="N61" s="5"/>
@@ -4653,7 +4717,7 @@
       <c r="R61" s="7"/>
       <c r="S61" s="5"/>
     </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>4</v>
       </c>
@@ -4676,10 +4740,16 @@
         <v>261</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="11"/>
+      <c r="I62" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L62" s="5"/>
       <c r="M62" s="5"/>
       <c r="N62" s="5"/>
       <c r="O62" s="5"/>
@@ -4711,17 +4781,17 @@
         <v>265</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J63" s="10" t="s">
+      <c r="I63" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J63" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K63" s="10" t="s">
+      <c r="K63" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L63" s="11" t="s">
-        <v>550</v>
+      <c r="L63" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M63" s="5"/>
       <c r="N63" s="5"/>
@@ -4731,7 +4801,7 @@
       <c r="R63" s="7"/>
       <c r="S63" s="5"/>
     </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>4</v>
       </c>
@@ -4754,14 +4824,16 @@
         <v>269</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="10" t="s">
+      <c r="I64" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K64" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L64" s="11" t="s">
+      <c r="L64" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M64" s="5"/>
@@ -4795,17 +4867,17 @@
         <v>273</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J65" s="10" t="s">
+      <c r="I65" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K65" s="10" t="s">
+      <c r="K65" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L65" s="11" t="s">
-        <v>549</v>
+      <c r="L65" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M65" s="5"/>
       <c r="N65" s="5"/>
@@ -4838,17 +4910,17 @@
         <v>277</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J66" s="10" t="s">
+      <c r="I66" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J66" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K66" s="10" t="s">
+      <c r="K66" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L66" s="11" t="s">
-        <v>549</v>
+      <c r="L66" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M66" s="5"/>
       <c r="N66" s="5"/>
@@ -4858,7 +4930,7 @@
       <c r="R66" s="7"/>
       <c r="S66" s="5"/>
     </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>4</v>
       </c>
@@ -4881,14 +4953,16 @@
         <v>281</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="10" t="s">
+      <c r="I67" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K67" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L67" s="11" t="s">
+      <c r="L67" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M67" s="5"/>
@@ -4899,7 +4973,7 @@
       <c r="R67" s="7"/>
       <c r="S67" s="5"/>
     </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>4</v>
       </c>
@@ -4922,10 +4996,16 @@
         <v>285</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="13"/>
-      <c r="J68" s="13"/>
-      <c r="K68" s="13"/>
-      <c r="L68" s="11"/>
+      <c r="I68" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L68" s="5"/>
       <c r="M68" s="5"/>
       <c r="N68" s="5"/>
       <c r="O68" s="5"/>
@@ -4934,7 +5014,7 @@
       <c r="R68" s="7"/>
       <c r="S68" s="5"/>
     </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>4</v>
       </c>
@@ -4957,14 +5037,16 @@
         <v>289</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="10" t="s">
+      <c r="I69" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K69" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L69" s="11" t="s">
+      <c r="L69" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M69" s="5"/>
@@ -4975,7 +5057,7 @@
       <c r="R69" s="7"/>
       <c r="S69" s="5"/>
     </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>4</v>
       </c>
@@ -4998,14 +5080,16 @@
         <v>293</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="10" t="s">
+      <c r="I70" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K70" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L70" s="11" t="s">
+      <c r="L70" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M70" s="5"/>
@@ -5016,7 +5100,7 @@
       <c r="R70" s="7"/>
       <c r="S70" s="5"/>
     </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>4</v>
       </c>
@@ -5039,14 +5123,16 @@
         <v>297</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="10" t="s">
+      <c r="I71" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K71" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L71" s="11" t="s">
+      <c r="L71" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M71" s="5"/>
@@ -5057,7 +5143,7 @@
       <c r="R71" s="7"/>
       <c r="S71" s="5"/>
     </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>4</v>
       </c>
@@ -5080,14 +5166,16 @@
         <v>301</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="10" t="s">
+      <c r="I72" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K72" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L72" s="11" t="s">
+      <c r="L72" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M72" s="5"/>
@@ -5098,7 +5186,7 @@
       <c r="R72" s="7"/>
       <c r="S72" s="5"/>
     </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>4</v>
       </c>
@@ -5121,14 +5209,16 @@
         <v>305</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="10" t="s">
+      <c r="I73" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K73" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L73" s="11" t="s">
+      <c r="L73" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M73" s="5"/>
@@ -5139,7 +5229,7 @@
       <c r="R73" s="7"/>
       <c r="S73" s="5"/>
     </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>4</v>
       </c>
@@ -5162,10 +5252,16 @@
         <v>309</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="11"/>
+      <c r="I74" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L74" s="5"/>
       <c r="M74" s="5"/>
       <c r="N74" s="5"/>
       <c r="O74" s="5"/>
@@ -5174,7 +5270,7 @@
       <c r="R74" s="7"/>
       <c r="S74" s="5"/>
     </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>4</v>
       </c>
@@ -5197,14 +5293,16 @@
         <v>313</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="10" t="s">
+      <c r="I75" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K75" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L75" s="11" t="s">
+      <c r="L75" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M75" s="5"/>
@@ -5215,7 +5313,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="5"/>
     </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>4</v>
       </c>
@@ -5238,14 +5336,16 @@
         <v>317</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="10" t="s">
+      <c r="I76" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K76" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L76" s="11" t="s">
+      <c r="L76" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M76" s="5"/>
@@ -5279,17 +5379,17 @@
         <v>321</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J77" s="10" t="s">
+      <c r="I77" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J77" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K77" s="10" t="s">
+      <c r="K77" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L77" s="11" t="s">
-        <v>538</v>
+      <c r="L77" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M77" s="5"/>
       <c r="N77" s="5"/>
@@ -5299,7 +5399,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="5"/>
     </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>4</v>
       </c>
@@ -5322,10 +5422,16 @@
         <v>325</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="11"/>
+      <c r="I78" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L78" s="5"/>
       <c r="M78" s="5"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
@@ -5357,17 +5463,17 @@
         <v>329</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="I79" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J79" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K79" s="10" t="s">
+      <c r="K79" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L79" s="11" t="s">
-        <v>549</v>
+      <c r="L79" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M79" s="5"/>
       <c r="N79" s="5"/>
@@ -5377,7 +5483,7 @@
       <c r="R79" s="7"/>
       <c r="S79" s="5"/>
     </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>4</v>
       </c>
@@ -5400,10 +5506,16 @@
         <v>333</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="11"/>
+      <c r="I80" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L80" s="5"/>
       <c r="M80" s="5"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
@@ -5412,7 +5524,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="5"/>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>4</v>
       </c>
@@ -5435,10 +5547,16 @@
         <v>337</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="11"/>
+      <c r="I81" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L81" s="5"/>
       <c r="M81" s="5"/>
       <c r="N81" s="5"/>
       <c r="O81" s="5"/>
@@ -5447,7 +5565,7 @@
       <c r="R81" s="7"/>
       <c r="S81" s="5"/>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>4</v>
       </c>
@@ -5470,10 +5588,16 @@
         <v>341</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="11"/>
+      <c r="I82" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L82" s="5"/>
       <c r="M82" s="5"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
@@ -5505,17 +5629,17 @@
         <v>345</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J83" s="10" t="s">
+      <c r="I83" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J83" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K83" s="10" t="s">
+      <c r="K83" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L83" s="11" t="s">
-        <v>550</v>
+      <c r="L83" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M83" s="5"/>
       <c r="N83" s="5"/>
@@ -5525,7 +5649,7 @@
       <c r="R83" s="7"/>
       <c r="S83" s="5"/>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>4</v>
       </c>
@@ -5548,10 +5672,16 @@
         <v>349</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="13"/>
-      <c r="J84" s="13"/>
-      <c r="K84" s="13"/>
-      <c r="L84" s="11"/>
+      <c r="I84" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L84" s="5"/>
       <c r="M84" s="5"/>
       <c r="N84" s="5"/>
       <c r="O84" s="5"/>
@@ -5583,17 +5713,17 @@
         <v>353</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J85" s="10" t="s">
+      <c r="I85" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J85" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K85" s="10" t="s">
+      <c r="K85" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L85" s="11" t="s">
-        <v>547</v>
+      <c r="L85" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M85" s="5"/>
       <c r="N85" s="5"/>
@@ -5626,17 +5756,17 @@
         <v>357</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J86" s="10" t="s">
+      <c r="I86" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J86" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K86" s="10" t="s">
+      <c r="K86" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L86" s="11" t="s">
-        <v>538</v>
+      <c r="L86" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M86" s="5"/>
       <c r="N86" s="5"/>
@@ -5669,17 +5799,17 @@
         <v>361</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J87" s="10" t="s">
+      <c r="I87" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J87" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K87" s="10" t="s">
+      <c r="K87" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L87" s="11" t="s">
-        <v>538</v>
+      <c r="L87" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M87" s="5"/>
       <c r="N87" s="5"/>
@@ -5712,17 +5842,17 @@
         <v>365</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J88" s="10" t="s">
+      <c r="I88" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J88" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K88" s="10" t="s">
+      <c r="K88" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L88" s="11" t="s">
-        <v>538</v>
+      <c r="L88" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M88" s="5"/>
       <c r="N88" s="5"/>
@@ -5755,17 +5885,17 @@
         <v>369</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="J89" s="13" t="s">
+      <c r="I89" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J89" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K89" s="10" t="s">
+      <c r="K89" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L89" s="11" t="s">
-        <v>538</v>
+      <c r="L89" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M89" s="5"/>
       <c r="N89" s="5"/>
@@ -5798,17 +5928,17 @@
         <v>373</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="13" t="s">
-        <v>537</v>
-      </c>
-      <c r="J90" s="13" t="s">
+      <c r="I90" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J90" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="K90" s="10" t="s">
+      <c r="K90" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L90" s="12" t="s">
-        <v>550</v>
+      <c r="L90" s="5" t="s">
+        <v>552</v>
       </c>
       <c r="M90" s="5"/>
       <c r="N90" s="5"/>
@@ -5841,17 +5971,17 @@
         <v>377</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J91" s="10" t="s">
+      <c r="I91" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J91" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K91" s="10" t="s">
+      <c r="K91" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L91" s="11" t="s">
-        <v>549</v>
+      <c r="L91" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M91" s="5"/>
       <c r="N91" s="5"/>
@@ -5861,7 +5991,7 @@
       <c r="R91" s="7"/>
       <c r="S91" s="5"/>
     </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>4</v>
       </c>
@@ -5884,14 +6014,16 @@
         <v>381</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="10" t="s">
+      <c r="I92" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K92" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L92" s="11" t="s">
+      <c r="L92" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M92" s="5"/>
@@ -5902,7 +6034,7 @@
       <c r="R92" s="7"/>
       <c r="S92" s="5"/>
     </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>4</v>
       </c>
@@ -5925,10 +6057,16 @@
         <v>385</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="13"/>
-      <c r="J93" s="13"/>
-      <c r="K93" s="13"/>
-      <c r="L93" s="11"/>
+      <c r="I93" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L93" s="5"/>
       <c r="M93" s="5"/>
       <c r="N93" s="5"/>
       <c r="O93" s="5"/>
@@ -5960,17 +6098,17 @@
         <v>389</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J94" s="10" t="s">
+      <c r="I94" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J94" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K94" s="10" t="s">
+      <c r="K94" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L94" s="11" t="s">
-        <v>538</v>
+      <c r="L94" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M94" s="5"/>
       <c r="N94" s="5"/>
@@ -6003,17 +6141,17 @@
         <v>393</v>
       </c>
       <c r="H95" s="7"/>
-      <c r="I95" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J95" s="10" t="s">
+      <c r="I95" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J95" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K95" s="10" t="s">
+      <c r="K95" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L95" s="11" t="s">
-        <v>547</v>
+      <c r="L95" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M95" s="5"/>
       <c r="N95" s="5"/>
@@ -6046,17 +6184,17 @@
         <v>397</v>
       </c>
       <c r="H96" s="7"/>
-      <c r="I96" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J96" s="10" t="s">
+      <c r="I96" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J96" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K96" s="10" t="s">
+      <c r="K96" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L96" s="11" t="s">
-        <v>538</v>
+      <c r="L96" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M96" s="5"/>
       <c r="N96" s="5"/>
@@ -6089,17 +6227,17 @@
         <v>401</v>
       </c>
       <c r="H97" s="7"/>
-      <c r="I97" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J97" s="10" t="s">
+      <c r="I97" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J97" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K97" s="10" t="s">
+      <c r="K97" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L97" s="11" t="s">
-        <v>549</v>
+      <c r="L97" s="5" t="s">
+        <v>551</v>
       </c>
       <c r="M97" s="5"/>
       <c r="N97" s="5"/>
@@ -6109,7 +6247,7 @@
       <c r="R97" s="7"/>
       <c r="S97" s="5"/>
     </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>4</v>
       </c>
@@ -6132,10 +6270,16 @@
         <v>405</v>
       </c>
       <c r="H98" s="7"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="10"/>
-      <c r="K98" s="10"/>
-      <c r="L98" s="11"/>
+      <c r="I98" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K98" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L98" s="5"/>
       <c r="M98" s="5"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
@@ -6167,17 +6311,17 @@
         <v>409</v>
       </c>
       <c r="H99" s="7"/>
-      <c r="I99" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J99" s="10" t="s">
+      <c r="I99" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J99" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K99" s="10" t="s">
+      <c r="K99" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L99" s="11" t="s">
-        <v>547</v>
+      <c r="L99" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M99" s="5"/>
       <c r="N99" s="5"/>
@@ -6210,17 +6354,17 @@
         <v>413</v>
       </c>
       <c r="H100" s="7"/>
-      <c r="I100" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J100" s="10" t="s">
+      <c r="I100" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J100" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="K100" s="10" t="s">
+      <c r="K100" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L100" s="11" t="s">
-        <v>547</v>
+      <c r="L100" s="5" t="s">
+        <v>549</v>
       </c>
       <c r="M100" s="5"/>
       <c r="N100" s="5"/>
@@ -6230,7 +6374,7 @@
       <c r="R100" s="7"/>
       <c r="S100" s="5"/>
     </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>4</v>
       </c>
@@ -6253,10 +6397,16 @@
         <v>417</v>
       </c>
       <c r="H101" s="7"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="10"/>
-      <c r="K101" s="10"/>
-      <c r="L101" s="11"/>
+      <c r="I101" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K101" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L101" s="5"/>
       <c r="M101" s="5"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
@@ -6265,7 +6415,7 @@
       <c r="R101" s="7"/>
       <c r="S101" s="5"/>
     </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>4</v>
       </c>
@@ -6288,10 +6438,16 @@
         <v>421</v>
       </c>
       <c r="H102" s="7"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="10"/>
-      <c r="K102" s="10"/>
-      <c r="L102" s="11"/>
+      <c r="I102" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K102" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L102" s="5"/>
       <c r="M102" s="5"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
@@ -6300,7 +6456,7 @@
       <c r="R102" s="7"/>
       <c r="S102" s="5"/>
     </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>4</v>
       </c>
@@ -6323,14 +6479,16 @@
         <v>425</v>
       </c>
       <c r="H103" s="7"/>
-      <c r="I103" s="10" t="s">
+      <c r="I103" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K103" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L103" s="11" t="s">
+      <c r="L103" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M103" s="5"/>
@@ -6341,7 +6499,7 @@
       <c r="R103" s="7"/>
       <c r="S103" s="5"/>
     </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>4</v>
       </c>
@@ -6364,14 +6522,16 @@
         <v>428</v>
       </c>
       <c r="H104" s="7"/>
-      <c r="I104" s="10" t="s">
+      <c r="I104" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K104" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L104" s="11" t="s">
+      <c r="L104" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M104" s="5"/>
@@ -6405,17 +6565,17 @@
         <v>432</v>
       </c>
       <c r="H105" s="7"/>
-      <c r="I105" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J105" s="10" t="s">
+      <c r="I105" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J105" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="K105" s="10" t="s">
+      <c r="K105" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L105" s="11" t="s">
-        <v>548</v>
+      <c r="L105" s="5" t="s">
+        <v>550</v>
       </c>
       <c r="M105" s="5"/>
       <c r="N105" s="5"/>
@@ -6425,7 +6585,7 @@
       <c r="R105" s="7"/>
       <c r="S105" s="5"/>
     </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>4</v>
       </c>
@@ -6448,14 +6608,16 @@
         <v>436</v>
       </c>
       <c r="H106" s="7"/>
-      <c r="I106" s="10" t="s">
+      <c r="I106" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K106" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J106" s="10"/>
-      <c r="K106" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L106" s="11" t="s">
+      <c r="L106" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M106" s="5"/>
@@ -6489,17 +6651,17 @@
         <v>439</v>
       </c>
       <c r="H107" s="7"/>
-      <c r="I107" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J107" s="10" t="s">
+      <c r="I107" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J107" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K107" s="10" t="s">
+      <c r="K107" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L107" s="11" t="s">
-        <v>538</v>
+      <c r="L107" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M107" s="5"/>
       <c r="N107" s="5"/>
@@ -6532,17 +6694,17 @@
         <v>443</v>
       </c>
       <c r="H108" s="7"/>
-      <c r="I108" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J108" s="10" t="s">
+      <c r="I108" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J108" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K108" s="10" t="s">
+      <c r="K108" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L108" s="11" t="s">
-        <v>538</v>
+      <c r="L108" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M108" s="5"/>
       <c r="N108" s="5"/>
@@ -6552,7 +6714,7 @@
       <c r="R108" s="7"/>
       <c r="S108" s="5"/>
     </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>4</v>
       </c>
@@ -6575,14 +6737,16 @@
         <v>447</v>
       </c>
       <c r="H109" s="7"/>
-      <c r="I109" s="10" t="s">
+      <c r="I109" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="K109" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="J109" s="10"/>
-      <c r="K109" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="L109" s="11" t="s">
+      <c r="L109" s="5" t="s">
         <v>541</v>
       </c>
       <c r="M109" s="5"/>
@@ -6616,17 +6780,17 @@
         <v>451</v>
       </c>
       <c r="H110" s="7"/>
-      <c r="I110" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="J110" s="10" t="s">
+      <c r="I110" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K110" s="10" t="s">
+      <c r="K110" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L110" s="11" t="s">
-        <v>538</v>
+      <c r="L110" s="5" t="s">
+        <v>553</v>
       </c>
       <c r="M110" s="5"/>
       <c r="N110" s="5"/>
@@ -6636,7 +6800,7 @@
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
     </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>4</v>
       </c>
@@ -6659,10 +6823,16 @@
         <v>455</v>
       </c>
       <c r="H111" s="7"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="10"/>
-      <c r="K111" s="10"/>
-      <c r="L111" s="11"/>
+      <c r="I111" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K111" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L111" s="5"/>
       <c r="M111" s="5"/>
       <c r="N111" s="5"/>
       <c r="O111" s="5"/>
@@ -6671,7 +6841,7 @@
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
     </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>4</v>
       </c>
@@ -6694,10 +6864,16 @@
         <v>459</v>
       </c>
       <c r="H112" s="7"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="10"/>
-      <c r="K112" s="10"/>
-      <c r="L112" s="11"/>
+      <c r="I112" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K112" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L112" s="5"/>
       <c r="M112" s="5"/>
       <c r="N112" s="5"/>
       <c r="O112" s="5"/>
@@ -6706,7 +6882,7 @@
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
     </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>4</v>
       </c>
@@ -6729,10 +6905,16 @@
         <v>463</v>
       </c>
       <c r="H113" s="7"/>
-      <c r="I113" s="13"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="11"/>
+      <c r="I113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K113" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L113" s="5"/>
       <c r="M113" s="5"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
@@ -6741,7 +6923,7 @@
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
     </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>4</v>
       </c>
@@ -6764,10 +6946,16 @@
         <v>467</v>
       </c>
       <c r="H114" s="7"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="10"/>
-      <c r="K114" s="10"/>
-      <c r="L114" s="11"/>
+      <c r="I114" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K114" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L114" s="5"/>
       <c r="M114" s="5"/>
       <c r="N114" s="5"/>
       <c r="O114" s="5"/>
@@ -6776,7 +6964,7 @@
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
     </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>4</v>
       </c>
@@ -6799,10 +6987,16 @@
         <v>471</v>
       </c>
       <c r="H115" s="7"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="10"/>
-      <c r="K115" s="10"/>
-      <c r="L115" s="11"/>
+      <c r="I115" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K115" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L115" s="5"/>
       <c r="M115" s="5"/>
       <c r="N115" s="5"/>
       <c r="O115" s="5"/>
@@ -6811,7 +7005,7 @@
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
     </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>4</v>
       </c>
@@ -6834,10 +7028,16 @@
         <v>475</v>
       </c>
       <c r="H116" s="7"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="10"/>
-      <c r="K116" s="10"/>
-      <c r="L116" s="11"/>
+      <c r="I116" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K116" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L116" s="5"/>
       <c r="M116" s="5"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
@@ -6846,7 +7046,7 @@
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
     </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>4</v>
       </c>
@@ -6869,10 +7069,16 @@
         <v>479</v>
       </c>
       <c r="H117" s="7"/>
-      <c r="I117" s="13"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="11"/>
+      <c r="I117" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K117" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L117" s="5"/>
       <c r="M117" s="5"/>
       <c r="N117" s="5"/>
       <c r="O117" s="5"/>
@@ -6881,7 +7087,7 @@
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
     </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>4</v>
       </c>
@@ -6904,10 +7110,16 @@
         <v>483</v>
       </c>
       <c r="H118" s="7"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="10"/>
-      <c r="L118" s="12"/>
+      <c r="I118" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K118" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L118" s="5"/>
       <c r="M118" s="5"/>
       <c r="N118" s="5"/>
       <c r="O118" s="5"/>
@@ -6916,7 +7128,7 @@
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
     </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>4</v>
       </c>
@@ -6939,10 +7151,16 @@
         <v>487</v>
       </c>
       <c r="H119" s="7"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10"/>
-      <c r="K119" s="10"/>
-      <c r="L119" s="11"/>
+      <c r="I119" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K119" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L119" s="5"/>
       <c r="M119" s="5"/>
       <c r="N119" s="5"/>
       <c r="O119" s="5"/>
@@ -6951,7 +7169,7 @@
       <c r="R119" s="7"/>
       <c r="S119" s="5"/>
     </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>4</v>
       </c>
@@ -6974,10 +7192,16 @@
         <v>490</v>
       </c>
       <c r="H120" s="7"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10"/>
-      <c r="K120" s="10"/>
-      <c r="L120" s="11"/>
+      <c r="I120" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K120" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L120" s="5"/>
       <c r="M120" s="5"/>
       <c r="N120" s="5"/>
       <c r="O120" s="5"/>
@@ -6986,7 +7210,7 @@
       <c r="R120" s="7"/>
       <c r="S120" s="5"/>
     </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>4</v>
       </c>
@@ -7009,10 +7233,16 @@
         <v>494</v>
       </c>
       <c r="H121" s="7"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="10"/>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11"/>
+      <c r="I121" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K121" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L121" s="5"/>
       <c r="M121" s="5"/>
       <c r="N121" s="5"/>
       <c r="O121" s="5"/>
@@ -7021,7 +7251,7 @@
       <c r="R121" s="7"/>
       <c r="S121" s="5"/>
     </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>4</v>
       </c>
@@ -7044,10 +7274,16 @@
         <v>498</v>
       </c>
       <c r="H122" s="7"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="10"/>
-      <c r="K122" s="10"/>
-      <c r="L122" s="11"/>
+      <c r="I122" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K122" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L122" s="5"/>
       <c r="M122" s="5"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
@@ -7056,7 +7292,7 @@
       <c r="R122" s="7"/>
       <c r="S122" s="5"/>
     </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>4</v>
       </c>
@@ -7079,10 +7315,16 @@
         <v>502</v>
       </c>
       <c r="H123" s="7"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="10"/>
-      <c r="K123" s="10"/>
-      <c r="L123" s="12"/>
+      <c r="I123" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K123" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L123" s="5"/>
       <c r="M123" s="5"/>
       <c r="N123" s="5"/>
       <c r="O123" s="5"/>
@@ -7091,7 +7333,7 @@
       <c r="R123" s="7"/>
       <c r="S123" s="5"/>
     </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>4</v>
       </c>
@@ -7114,10 +7356,16 @@
         <v>506</v>
       </c>
       <c r="H124" s="7"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="10"/>
-      <c r="K124" s="10"/>
-      <c r="L124" s="11"/>
+      <c r="I124" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J124" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K124" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L124" s="5"/>
       <c r="M124" s="5"/>
       <c r="N124" s="5"/>
       <c r="O124" s="5"/>
@@ -7126,7 +7374,7 @@
       <c r="R124" s="7"/>
       <c r="S124" s="5"/>
     </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>4</v>
       </c>
@@ -7149,10 +7397,16 @@
         <v>510</v>
       </c>
       <c r="H125" s="7"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="10"/>
-      <c r="K125" s="10"/>
-      <c r="L125" s="11"/>
+      <c r="I125" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J125" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K125" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L125" s="5"/>
       <c r="M125" s="5"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
@@ -7161,7 +7415,7 @@
       <c r="R125" s="7"/>
       <c r="S125" s="5"/>
     </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>4</v>
       </c>
@@ -7184,10 +7438,16 @@
         <v>514</v>
       </c>
       <c r="H126" s="7"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="10"/>
-      <c r="K126" s="10"/>
-      <c r="L126" s="11"/>
+      <c r="I126" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J126" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K126" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L126" s="5"/>
       <c r="M126" s="5"/>
       <c r="N126" s="5"/>
       <c r="O126" s="5"/>
@@ -7196,7 +7456,7 @@
       <c r="R126" s="7"/>
       <c r="S126" s="5"/>
     </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>4</v>
       </c>
@@ -7219,10 +7479,16 @@
         <v>518</v>
       </c>
       <c r="H127" s="7"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="10"/>
-      <c r="K127" s="10"/>
-      <c r="L127" s="11"/>
+      <c r="I127" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J127" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K127" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L127" s="5"/>
       <c r="M127" s="5"/>
       <c r="N127" s="5"/>
       <c r="O127" s="5"/>
@@ -7231,7 +7497,7 @@
       <c r="R127" s="7"/>
       <c r="S127" s="5"/>
     </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>4</v>
       </c>
@@ -7254,10 +7520,16 @@
         <v>522</v>
       </c>
       <c r="H128" s="7"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="10"/>
-      <c r="K128" s="10"/>
-      <c r="L128" s="11"/>
+      <c r="I128" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J128" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K128" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L128" s="5"/>
       <c r="M128" s="5"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
@@ -7266,7 +7538,7 @@
       <c r="R128" s="7"/>
       <c r="S128" s="5"/>
     </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>4</v>
       </c>
@@ -7289,10 +7561,16 @@
         <v>526</v>
       </c>
       <c r="H129" s="7"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="10"/>
-      <c r="K129" s="10"/>
-      <c r="L129" s="12"/>
+      <c r="I129" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J129" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K129" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L129" s="5"/>
       <c r="M129" s="5"/>
       <c r="N129" s="5"/>
       <c r="O129" s="5"/>
@@ -7301,7 +7579,7 @@
       <c r="R129" s="7"/>
       <c r="S129" s="5"/>
     </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>4</v>
       </c>
@@ -7324,10 +7602,16 @@
         <v>530</v>
       </c>
       <c r="H130" s="7"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="10"/>
-      <c r="K130" s="10"/>
-      <c r="L130" s="11"/>
+      <c r="I130" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J130" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K130" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L130" s="5"/>
       <c r="M130" s="5"/>
       <c r="N130" s="5"/>
       <c r="O130" s="5"/>
@@ -7336,7 +7620,7 @@
       <c r="R130" s="7"/>
       <c r="S130" s="5"/>
     </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>4</v>
       </c>
@@ -7359,10 +7643,16 @@
         <v>534</v>
       </c>
       <c r="H131" s="7"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="10"/>
-      <c r="K131" s="10"/>
-      <c r="L131" s="11"/>
+      <c r="I131" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="J131" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="K131" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="L131" s="5"/>
       <c r="M131" s="5"/>
       <c r="N131" s="5"/>
       <c r="O131" s="5"/>
@@ -7372,7 +7662,13 @@
       <c r="S131" s="5"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S131"/>
+  <autoFilter ref="A1:S131">
+    <filterColumn colId="10">
+      <filters>
+        <filter val="Y"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>